--- a/biology/Botanique/Benjamin_Britten_(rose)/Benjamin_Britten_(rose).xlsx
+++ b/biology/Botanique/Benjamin_Britten_(rose)/Benjamin_Britten_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Benjamin Britten' est un cultivar de rosier moderne obtenu en 1992 et introduite au commerce en 2001 par le rosiériste anglais David Austin[1]. Il doit son nom au compositeur britannique Benjamin Britten (1913-1976).
+'Benjamin Britten' est un cultivar de rosier moderne obtenu en 1992 et introduite au commerce en 2001 par le rosiériste anglais David Austin. Il doit son nom au compositeur britannique Benjamin Britten (1913-1976).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier fait partie du groupe des « roses anglaises ». Son buisson s'élève de 100 cm à 120 cm pour une envergure de 70 cm. Il donne de grandes fleurs de 10 cm à 12 cm de diamètre de couleur rouge qui fleurissent en solitaire. Elles possèdent plus de 41 pétales en coupe et sont fortement parfumées avec des nuances de poire[2]. La floraison est remontante. Ses fleurs résistent à la pluie.
-La zone de rusticité de 'Benjamin Britten' est de 6b (−17.8 °C… −20.6 °C)[1]. Cette variété est résistante aux maladies du rosier. Il descend de 'Charles Austin' (Austin 1973) et d'un semis non révélé au public.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier fait partie du groupe des « roses anglaises ». Son buisson s'élève de 100 cm à 120 cm pour une envergure de 70 cm. Il donne de grandes fleurs de 10 cm à 12 cm de diamètre de couleur rouge qui fleurissent en solitaire. Elles possèdent plus de 41 pétales en coupe et sont fortement parfumées avec des nuances de poire. La floraison est remontante. Ses fleurs résistent à la pluie.
+La zone de rusticité de 'Benjamin Britten' est de 6b (−17.8 °C… −20.6 °C). Cette variété est résistante aux maladies du rosier. Il descend de 'Charles Austin' (Austin 1973) et d'un semis non révélé au public.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Ascendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le site HelpMeFind.com[3], 'Benjamin Britten' descend de :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le site HelpMeFind.com, 'Benjamin Britten' descend de :
 </t>
         </is>
       </c>
